--- a/biology/Médecine/Lacune_vasculaire_rétro-inguinale/Lacune_vasculaire_rétro-inguinale.xlsx
+++ b/biology/Médecine/Lacune_vasculaire_rétro-inguinale/Lacune_vasculaire_rétro-inguinale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lacune_vasculaire_r%C3%A9tro-inguinale</t>
+          <t>Lacune_vasculaire_rétro-inguinale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La lacune vasculaire rétro-inguinale est un espace situé dans le membre inférieur au niveau de la cuisse. Elle forme la partie médiale de l'espace situé entre le ligament inguinal et le bord de l'os coxal.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lacune_vasculaire_r%C3%A9tro-inguinale</t>
+          <t>Lacune_vasculaire_rétro-inguinale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La lacune musculaire rétro-inguinale est limité :
 en avant et en dedans, par le ligament inguinal,
